--- a/Calculation Tool/Belter_tension_calculator.xlsx
+++ b/Calculation Tool/Belter_tension_calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\bq\拉力计\Git\Calculation Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3279139-3381-4B46-B81E-549367698655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B352BB83-A43C-451C-ACCF-647A320061E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
   </bookViews>
@@ -77,15 +77,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Recommended Tension </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Is your tension within Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belt Tension (N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select your Printer and Belt type in green area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -102,12 +106,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>蓝色区域输入表显数值</t>
+      <t>Enter the Belter Display value in the blue area</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Belt Tension (N)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,9 +284,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -296,12 +302,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2104,7 +2104,7 @@
   <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="D6" sqref="D6:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2121,23 +2121,23 @@
       <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="14" t="s">
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -2147,27 +2147,27 @@
         <f t="shared" ref="B2:B33" si="0">7.673640167*A2-33.7167364</f>
         <v>4.6514644350000012</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="13">
+        <v>6.9</v>
+      </c>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11">
-        <v>6.9</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="15" t="s">
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -2177,19 +2177,19 @@
         <f t="shared" si="0"/>
         <v>5.4188284516999943</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
@@ -2199,19 +2199,19 @@
         <f t="shared" si="0"/>
         <v>6.1861924684000016</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -2221,19 +2221,19 @@
         <f t="shared" si="0"/>
         <v>6.9535564850999947</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -2243,28 +2243,28 @@
         <f t="shared" si="0"/>
         <v>7.720920501800002</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14">
         <f>7.673640167*ABS(E2)-33.7167364</f>
         <v>19.231380752300005</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="10" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -2274,25 +2274,25 @@
         <f t="shared" si="0"/>
         <v>8.4882845185000022</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="10" t="str">
+      <c r="N7" s="9" t="str">
         <f>IF(AND(E6&lt;=M8,E6&gt;=K8),"YES","NO")</f>
         <v>YES</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -2302,24 +2302,24 @@
         <f t="shared" si="0"/>
         <v>9.2556485351999953</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10">
+      <c r="D8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="9">
         <f>VLOOKUP(N2,Table1[],2,FALSE)</f>
         <v>12</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <f>VLOOKUP(N2,Table1[],3,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -2329,18 +2329,18 @@
         <f t="shared" si="0"/>
         <v>10.023012551900003</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
@@ -2950,6 +2950,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:J5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:J9"/>
+    <mergeCell ref="D1:J1"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N7:P9"/>
@@ -2958,11 +2963,6 @@
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
     <mergeCell ref="N2:P5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:J5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:J9"/>
-    <mergeCell ref="D1:J1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N7:P9">
